--- a/biology/Médecine/Arsène_Pigeolet/Arsène_Pigeolet.xlsx
+++ b/biology/Médecine/Arsène_Pigeolet/Arsène_Pigeolet.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ars%C3%A8ne_Pigeolet</t>
+          <t>Arsène_Pigeolet</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Arsène Pigeolet, né à Nivelles le 9 septembre 1814 et décédé à Bruxelles le 19 mai 1902, est un médecin, accoucheur, professeur à l'Université libre de Bruxelles dont il fut recteur en 1878-1879 et sénateur (Nivelles), dès 1878.
 Après avoir commencé ses études à l'Université d'État de Louvain, il les termina à Bruxelles en 1845 avec la plus grande distinction.
@@ -497,7 +509,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ars%C3%A8ne_Pigeolet</t>
+          <t>Arsène_Pigeolet</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -515,7 +527,9 @@
           <t>Ses publications</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Études sur la maladie de la hanche (thèse).
 Esquisse historique sur le bandage amidonné, 1840.</t>
